--- a/biology/Zoologie/Austrotinodes/Austrotinodes.xlsx
+++ b/biology/Zoologie/Austrotinodes/Austrotinodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrotinodes est un genre d'insectes de l'ordre des trichoptères et de la famille des Ecnomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Austrotinodes a été créé en 1955 par l'entomologiste canadien Fernand Schmid (d) (1924-1998)[1] avec comme espèce type Austrotinodes latior[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Austrotinodes a été créé en 1955 par l'entomologiste canadien Fernand Schmid (d) (1924-1998) avec comme espèce type Austrotinodes latior. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juin 2022) :
 Austrotinodes abrachium Thson &amp; Holzenthal, 2010
 Austrotinodes adamsae Flint, 1996
 Austrotinodes amazonensis Flint &amp; Denning, 1989
@@ -600,7 +616,7 @@
 Austrotinodes uruguayensis Angrisano, 1994
 Austrotinodes varus Cartwright, 2009
 Austrotinodes yalga Cartwright, 2009
-Selon ITIS      (24 juin 2022)[1] :
+Selon ITIS      (24 juin 2022) :
 Austrotinodes adamsae Flint, 1996
 Austrotinodes amazonensis Flint &amp; Denning, 1989
 Austrotinodes ancylus Flint &amp; Denning, 1989
@@ -638,7 +654,7 @@
 Austrotinodes triangularis Schmid, 1958
 Austrotinodes tuxtlensis Flint &amp; Denning, 1989
 Austrotinodes uruguayensis Angrisano, 1994
-Selon NCBI  (24 juin 2022)[4] :
+Selon NCBI  (24 juin 2022) :
 Austrotinodes adamsae
 Austrotinodes angustior
 Austrotinodes contubernalis
@@ -677,9 +693,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Austrotinodes, fait référence au genre Tinodes, dont les nervures sont semblables, et à l'hémisphère Sud (du latin autralis)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Austrotinodes, fait référence au genre Tinodes, dont les nervures sont semblables, et à l'hémisphère Sud (du latin autralis).
 </t>
         </is>
       </c>
@@ -708,7 +726,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fernand Schmid, « Contribution à la connaissance des Trichoptères néotropicaux », Mémoires de la Société vaudoise des sciences naturelles, vol. 11, no 69,‎ 30 juin 1955, p. 117-169 (ISSN 0037-9611, OCLC 487866047, BNF 34468723, DOI 10.5169/SEALS-257487, lire en ligne)</t>
         </is>
